--- a/biology/Médecine/Léthargie/Léthargie.xlsx
+++ b/biology/Médecine/Léthargie/Léthargie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%C3%A9thargie</t>
+          <t>Léthargie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
@@ -498,7 +510,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%C3%A9thargie</t>
+          <t>Léthargie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,13 +528,11 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La léthargie est une forme de vie ralentie (hibernation, estivation) qui permet à certains animaux (invertébrés et vertébrés) de surmonter des conditions ambiantes défavorables. 
-Fonctions vitales
-Les animaux en léthargie ont des fonctions vitales extrêmement réduites (la température du corps baisse, les battements cardiaques et les mouvements respiratoires deviennent moins fréquents). Toutefois, une certaine quantité d'énergie est nécessaire à l'animal pour accomplir ses fonctions vitales, même si elles sont réduites au minimum. Pour cela, avant de tomber en léthargie, il accumule des réserves de graisses et de sucres destinées à être métabolisées au cours de cette période. 
-Périodes
-La léthargie, généralement périodique, correspond aux températures estivales maximales (estivation), ou aux températures hivernales minimales (hibernation). Il y a aussi des cas de léthargie non périodique, qui se produisent occasionnellement pour surmonter des difficultés ambiantes particulières (torpeur).
 </t>
         </is>
       </c>
@@ -533,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>L%C3%A9thargie</t>
+          <t>Léthargie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,14 +558,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Médecine</t>
+          <t>Biologie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lorsque le mot léthargie est utilisé en synonyme d'asthénie, il peut aussi faire référence à un symptôme de fatigue anormale ou d'aversion à l'activité induit par certaines maladies, blessures, médicaments ou drogues[réf. nécessaire].
-Histoire
-Luke Demaitre avance dans son texte Medieval Medicine. The Art of Healing, from Head to Toe que la léthargie était reconnue au Moyen Âge comme pouvant être provoquée par une complexion excessivement froide au cerveau. La congélation du corps, et donc le ralentissement des vapeurs dans la tête, favoriserait l’amnésie ou la léthargie de l’individu[1].
+          <t>Fonctions vitales</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les animaux en léthargie ont des fonctions vitales extrêmement réduites (la température du corps baisse, les battements cardiaques et les mouvements respiratoires deviennent moins fréquents). Toutefois, une certaine quantité d'énergie est nécessaire à l'animal pour accomplir ses fonctions vitales, même si elles sont réduites au minimum. Pour cela, avant de tomber en léthargie, il accumule des réserves de graisses et de sucres destinées à être métabolisées au cours de cette période. 
 </t>
         </is>
       </c>
@@ -566,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>L%C3%A9thargie</t>
+          <t>Léthargie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,13 +595,122 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Périodes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La léthargie, généralement périodique, correspond aux températures estivales maximales (estivation), ou aux températures hivernales minimales (hibernation). Il y a aussi des cas de léthargie non périodique, qui se produisent occasionnellement pour surmonter des difficultés ambiantes particulières (torpeur).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Léthargie</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%C3%A9thargie</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Médecine</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lorsque le mot léthargie est utilisé en synonyme d'asthénie, il peut aussi faire référence à un symptôme de fatigue anormale ou d'aversion à l'activité induit par certaines maladies, blessures, médicaments ou drogues[réf. nécessaire].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Léthargie</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%C3%A9thargie</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Médecine</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Luke Demaitre avance dans son texte Medieval Medicine. The Art of Healing, from Head to Toe que la léthargie était reconnue au Moyen Âge comme pouvant être provoquée par une complexion excessivement froide au cerveau. La congélation du corps, et donc le ralentissement des vapeurs dans la tête, favoriserait l’amnésie ou la léthargie de l’individu.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Léthargie</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%C3%A9thargie</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Physique nucléaire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">En physique nucléaire, et plus particulièrement en neutronique, la léthargie est une variable correspondant à un rapport d'énergies, entre l'énergie d'un neutron et une énergie de référence arbitraire.
-Cette variable est utilisée pour des raisons à la fois pratiques et théoriques (la loi du choc élastique mettant en jeu des rapports d'énergie). Elle permet notamment de faciliter la compréhension de phénomènes comme la modération de neutrons, via le gain de léthargie (équivalent à une perte d'énergie)[2].
+Cette variable est utilisée pour des raisons à la fois pratiques et théoriques (la loi du choc élastique mettant en jeu des rapports d'énergie). Elle permet notamment de faciliter la compréhension de phénomènes comme la modération de neutrons, via le gain de léthargie (équivalent à une perte d'énergie).
 La léthargie est définie comme suit :
         u
         =
